--- a/data/instance/200/schedule_1.xlsx
+++ b/data/instance/200/schedule_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,24 +402,22 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TR898</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.01875</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D44</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -432,20 +430,18 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SQ306</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.025</v>
+        <v>0.02638888888888889</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.05347222222222222</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -462,24 +458,22 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TR734</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.02569444444444444</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -492,20 +486,18 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3K723</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.03194444444444444</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -522,20 +514,18 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EK405</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.03125</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -552,20 +542,18 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SQ656</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07430555555555556</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -582,20 +570,18 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SQ672</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.06805555555555555</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>E25</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -612,24 +598,22 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SQ346</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.08194444444444444</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -642,24 +626,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SQ478</t>
-        </is>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.08125</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.1076388888888889</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>D37</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -672,20 +654,18 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SQ618</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.07152777777777777</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -702,24 +682,22 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>KL836</t>
-        </is>
+      <c r="B12" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.04513888888888889</v>
+        <v>0.06527777777777778</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -732,20 +710,18 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MI868</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.04930555555555555</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.07291666666666667</v>
+        <v>0.08958333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -762,24 +738,22 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SQ392</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04305555555555556</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.0763888888888889</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -792,20 +766,18 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3K791</t>
-        </is>
+      <c r="B15" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.075</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09861111111111111</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E24</t>
+          <t>C22</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -822,20 +794,18 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>QR945</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08958333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -852,24 +822,22 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SQ52S</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.05763888888888889</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.08125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -882,24 +850,22 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TR2SI</t>
-        </is>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.07847222222222222</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -912,24 +878,22 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3K763</t>
-        </is>
+      <c r="B19" t="n">
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.0763888888888889</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -942,24 +906,22 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>JL38S</t>
-        </is>
+      <c r="B20" t="n">
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.07430555555555556</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1020833333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -972,20 +934,18 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SQ402</t>
-        </is>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.0798611111111111</v>
+        <v>0.07569444444444444</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.1006944444444444</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1002,24 +962,22 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SQ612</t>
-        </is>
+      <c r="B22" t="n">
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.08055555555555556</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09513888888888888</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1032,24 +990,22 @@
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>6E42S</t>
-        </is>
+      <c r="B23" t="n">
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.09375</v>
+        <v>0.07152777777777777</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1062,24 +1018,22 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>KB900</t>
-        </is>
+      <c r="B24" t="n">
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.06319444444444444</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1092,20 +1046,18 @@
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>6E121</t>
-        </is>
+      <c r="B25" t="n">
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.1534722222222222</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.1770833333333333</v>
+        <v>0.1465277777777778</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1122,20 +1074,18 @@
       <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TR392</t>
-        </is>
+      <c r="B26" t="n">
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.1958333333333333</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.21875</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1152,20 +1102,18 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>JQ117</t>
-        </is>
+      <c r="B27" t="n">
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.2013888888888889</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1201388888888889</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>D36</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1182,24 +1130,22 @@
       <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BS308</t>
-        </is>
+      <c r="B28" t="n">
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.2020833333333333</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.2256944444444444</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1212,24 +1158,22 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>6E58S</t>
-        </is>
+      <c r="B29" t="n">
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.20625</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.1291666666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1242,20 +1186,18 @@
       <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TR892</t>
-        </is>
+      <c r="B30" t="n">
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.2152777777777778</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.1118055555555556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1272,20 +1214,18 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>6E54S</t>
-        </is>
+      <c r="B31" t="n">
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.2201388888888889</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.2430555555555556</v>
+        <v>0.1430555555555555</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1302,20 +1242,18 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3K761</t>
-        </is>
+      <c r="B32" t="n">
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.2465277777777778</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.2673611111111111</v>
+        <v>0.1152777777777778</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1332,24 +1270,22 @@
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NH802</t>
-        </is>
+      <c r="B33" t="n">
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.2506944444444444</v>
+        <v>0.1131944444444444</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.2743055555555556</v>
+        <v>0.1347222222222222</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1362,24 +1298,22 @@
       <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SQ950</t>
-        </is>
+      <c r="B34" t="n">
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.2618055555555556</v>
+        <v>0.09305555555555556</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>F30</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1392,24 +1326,22 @@
       <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MI176</t>
-        </is>
+      <c r="B35" t="n">
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.2645833333333333</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.1430555555555555</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1422,20 +1354,18 @@
       <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TR688</t>
-        </is>
+      <c r="B36" t="n">
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.2652777777777778</v>
+        <v>0.1090277777777778</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.1340277777777778</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>D42</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1452,20 +1382,18 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TR894</t>
-        </is>
+      <c r="B37" t="n">
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.2673611111111111</v>
+        <v>0.1229166666666667</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>E25</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1482,24 +1410,22 @@
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MI436</t>
-        </is>
+      <c r="B38" t="n">
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.2680555555555555</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1125</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1512,20 +1438,18 @@
       <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MI750</t>
-        </is>
+      <c r="B39" t="n">
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.2680555555555555</v>
+        <v>0.08472222222222223</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1542,24 +1466,22 @@
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TR608</t>
-        </is>
+      <c r="B40" t="n">
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.2680555555555555</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1375</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1572,24 +1494,22 @@
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3K243</t>
-        </is>
+      <c r="B41" t="n">
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.2715277777777778</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.2951388888888889</v>
+        <v>0.1125</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1602,20 +1522,18 @@
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SQ241</t>
-        </is>
+      <c r="B42" t="n">
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.2722222222222222</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.2951388888888889</v>
+        <v>0.1659722222222222</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1632,20 +1550,18 @@
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3K511</t>
-        </is>
+      <c r="B43" t="n">
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.2756944444444445</v>
+        <v>0.1534722222222222</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.2986111111111111</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1662,24 +1578,22 @@
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3K555</t>
-        </is>
+      <c r="B44" t="n">
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.275</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.2986111111111111</v>
+        <v>0.1881944444444444</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1692,20 +1606,18 @@
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3K721</t>
-        </is>
+      <c r="B45" t="n">
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.2756944444444445</v>
+        <v>0.1590277777777778</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.2986111111111111</v>
+        <v>0.1861111111111111</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1722,24 +1634,22 @@
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>SQ265</t>
-        </is>
+      <c r="B46" t="n">
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.1652777777777778</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.1868055555555556</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C22</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1752,20 +1662,18 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SQ970</t>
-        </is>
+      <c r="B47" t="n">
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.2784722222222222</v>
+        <v>0.1402777777777778</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.1625</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1782,24 +1690,22 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TR280</t>
-        </is>
+      <c r="B48" t="n">
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.28125</v>
+        <v>0.1625</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.1847222222222222</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1812,24 +1718,22 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TR484</t>
-        </is>
+      <c r="B49" t="n">
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.2784722222222222</v>
+        <v>0.1298611111111111</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.1541666666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1842,20 +1746,18 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>3K683</t>
-        </is>
+      <c r="B50" t="n">
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.2826388888888889</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1548611111111111</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1872,20 +1774,18 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>TR304</t>
-        </is>
+      <c r="B51" t="n">
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.2861111111111111</v>
+        <v>0.1604166666666667</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.3090277777777778</v>
+        <v>0.1826388888888889</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1902,24 +1802,22 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MI234</t>
-        </is>
+      <c r="B52" t="n">
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.15625</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.3125</v>
+        <v>0.1784722222222222</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1932,20 +1830,18 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MI602</t>
-        </is>
+      <c r="B53" t="n">
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0.2958333333333333</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -1962,20 +1858,18 @@
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SQ213</t>
-        </is>
+      <c r="B54" t="n">
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.2965277777777778</v>
+        <v>0.1486111111111111</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -1992,20 +1886,18 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>SQ952</t>
-        </is>
+      <c r="B55" t="n">
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.2965277777777778</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.1756944444444444</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2022,24 +1914,22 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>TR264</t>
-        </is>
+      <c r="B56" t="n">
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.2958333333333333</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.1618055555555556</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2052,20 +1942,18 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>3K201</t>
-        </is>
+      <c r="B57" t="n">
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0.2993055555555555</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>0.3229166666666667</v>
+        <v>0.1798611111111111</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2082,20 +1970,18 @@
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>SQ207</t>
-        </is>
+      <c r="B58" t="n">
+        <v>57</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0.3</v>
+        <v>0.1451388888888889</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>0.3229166666666667</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2112,24 +1998,22 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>SQ422</t>
-        </is>
+      <c r="B59" t="n">
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.2993055555555555</v>
+        <v>0.20625</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>0.3229166666666667</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2142,24 +2026,22 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>SQ930</t>
-        </is>
+      <c r="B60" t="n">
+        <v>59</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2034722222222222</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.2305555555555556</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>C22</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2172,24 +2054,22 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>3K533</t>
-        </is>
+      <c r="B61" t="n">
+        <v>60</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0.30625</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>0.3298611111111111</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2202,24 +2082,22 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>SQ998</t>
-        </is>
+      <c r="B62" t="n">
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>0.30625</v>
+        <v>0.1854166666666667</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0.3298611111111111</v>
+        <v>0.2118055555555556</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2232,24 +2110,22 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TR426</t>
-        </is>
+      <c r="B63" t="n">
+        <v>62</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>0.3125</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2215277777777778</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2262,20 +2138,18 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>SQ600</t>
-        </is>
+      <c r="B64" t="n">
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0.3131944444444444</v>
+        <v>0.1895833333333333</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>0.3368055555555556</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2292,24 +2166,22 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>SQ632</t>
-        </is>
+      <c r="B65" t="n">
+        <v>64</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0.3368055555555556</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2322,20 +2194,18 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MI772</t>
-        </is>
+      <c r="B66" t="n">
+        <v>65</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>0.3402777777777778</v>
+        <v>0.2229166666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2352,20 +2222,18 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>AI381</t>
-        </is>
+      <c r="B67" t="n">
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.2069444444444444</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.2284722222222222</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2382,24 +2250,22 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>JL712</t>
-        </is>
+      <c r="B68" t="n">
+        <v>67</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.1819444444444444</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2412,24 +2278,22 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SQ36S</t>
-        </is>
+      <c r="B69" t="n">
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>0.3243055555555556</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.1923611111111111</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2442,24 +2306,22 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SQ938</t>
-        </is>
+      <c r="B70" t="n">
+        <v>69</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.24375</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.2680555555555555</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2472,20 +2334,18 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TR384</t>
-        </is>
+      <c r="B71" t="n">
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.3243055555555556</v>
+        <v>0.2354166666666667</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -2502,20 +2362,18 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>SQ620</t>
-        </is>
+      <c r="B72" t="n">
+        <v>71</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0.3277777777777778</v>
+        <v>0.2451388888888889</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>0.3506944444444444</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2532,24 +2390,22 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MI324</t>
-        </is>
+      <c r="B73" t="n">
+        <v>72</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0.33125</v>
+        <v>0.2486111111111111</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.2715277777777778</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2562,24 +2418,22 @@
       <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TR648</t>
-        </is>
+      <c r="B74" t="n">
+        <v>73</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>0.33125</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.2347222222222222</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2592,24 +2446,22 @@
       <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>TR874</t>
-        </is>
+      <c r="B75" t="n">
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>0.33125</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.2659722222222222</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2622,24 +2474,22 @@
       <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CA404</t>
-        </is>
+      <c r="B76" t="n">
+        <v>75</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0.3381944444444445</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2520833333333333</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>D44</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2652,20 +2502,18 @@
       <c r="A77" t="n">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MI614</t>
-        </is>
+      <c r="B77" t="n">
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>0.3402777777777778</v>
+        <v>0.2215277777777778</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2458333333333333</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2682,24 +2530,22 @@
       <c r="A78" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MI801</t>
-        </is>
+      <c r="B78" t="n">
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>0.3375</v>
+        <v>0.2284722222222222</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2534722222222222</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>C25</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2712,24 +2558,22 @@
       <c r="A79" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>MI813</t>
-        </is>
+      <c r="B79" t="n">
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0.3375</v>
+        <v>0.2263888888888889</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2520833333333333</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2742,24 +2586,22 @@
       <c r="A80" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SQ182</t>
-        </is>
+      <c r="B80" t="n">
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>0.3375</v>
+        <v>0.23125</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2548611111111111</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2772,20 +2614,18 @@
       <c r="A81" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SQ281</t>
-        </is>
+      <c r="B81" t="n">
+        <v>80</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2802,20 +2642,18 @@
       <c r="A82" t="n">
         <v>81</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>SQ802</t>
-        </is>
+      <c r="B82" t="n">
+        <v>81</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.3486111111111111</v>
+        <v>0.2520833333333333</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>0.3715277777777778</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -2832,24 +2670,22 @@
       <c r="A83" t="n">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>AI347</t>
-        </is>
+      <c r="B83" t="n">
+        <v>82</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.2659722222222222</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>0.375</v>
+        <v>0.2881944444444444</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2862,24 +2698,22 @@
       <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>SQ308</t>
-        </is>
+      <c r="B84" t="n">
+        <v>83</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>0.3513888888888889</v>
+        <v>0.2847222222222222</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>0.375</v>
+        <v>0.3104166666666667</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2892,24 +2726,22 @@
       <c r="A85" t="n">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>MI424</t>
-        </is>
+      <c r="B85" t="n">
+        <v>84</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0.3576388888888889</v>
+        <v>0.2729166666666666</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0.3784722222222222</v>
+        <v>0.2944444444444445</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2922,24 +2754,22 @@
       <c r="A86" t="n">
         <v>85</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>SQ942</t>
-        </is>
+      <c r="B86" t="n">
+        <v>85</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.28125</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>0.3784722222222222</v>
+        <v>0.3027777777777778</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2952,24 +2782,22 @@
       <c r="A87" t="n">
         <v>86</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>3K581</t>
-        </is>
+      <c r="B87" t="n">
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0.3590277777777778</v>
+        <v>0.2909722222222222</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.3159722222222222</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>D30</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2982,24 +2810,22 @@
       <c r="A88" t="n">
         <v>87</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TR300</t>
-        </is>
+      <c r="B88" t="n">
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.26875</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.2923611111111111</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3012,24 +2838,22 @@
       <c r="A89" t="n">
         <v>88</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TR452</t>
-        </is>
+      <c r="B89" t="n">
+        <v>88</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.2645833333333333</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.2875</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3042,24 +2866,22 @@
       <c r="A90" t="n">
         <v>89</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>MI632</t>
-        </is>
+      <c r="B90" t="n">
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.2659722222222222</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>0.3854166666666667</v>
+        <v>0.2875</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>D34</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3072,20 +2894,18 @@
       <c r="A91" t="n">
         <v>90</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SQ176</t>
-        </is>
+      <c r="B91" t="n">
+        <v>90</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>0.3618055555555555</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>0.3854166666666667</v>
+        <v>0.3131944444444444</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>E24</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3102,24 +2922,22 @@
       <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>SQ910</t>
-        </is>
+      <c r="B92" t="n">
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>0.3625</v>
+        <v>0.3041666666666666</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>0.3854166666666667</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3132,24 +2950,22 @@
       <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>SQ12S</t>
-        </is>
+      <c r="B93" t="n">
+        <v>92</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>0.3680555555555556</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3423611111111111</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3162,24 +2978,22 @@
       <c r="A94" t="n">
         <v>93</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>SQ32S</t>
-        </is>
+      <c r="B94" t="n">
+        <v>93</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0.3680555555555556</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3569444444444445</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3192,24 +3006,22 @@
       <c r="A95" t="n">
         <v>94</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>SQ830</t>
-        </is>
+      <c r="B95" t="n">
+        <v>94</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>0.3652777777777778</v>
+        <v>0.3305555555555555</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3520833333333334</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3222,20 +3034,18 @@
       <c r="A96" t="n">
         <v>95</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>SQ28S</t>
-        </is>
+      <c r="B96" t="n">
+        <v>95</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>0.3715277777777778</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>0.3923611111111111</v>
+        <v>0.3506944444444444</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>D37</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3252,24 +3062,22 @@
       <c r="A97" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>3K663</t>
-        </is>
+      <c r="B97" t="n">
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>0.3729166666666667</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3282,24 +3090,22 @@
       <c r="A98" t="n">
         <v>97</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>SQ223</t>
-        </is>
+      <c r="B98" t="n">
+        <v>97</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>0.3729166666666667</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3819444444444444</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3312,24 +3118,22 @@
       <c r="A99" t="n">
         <v>98</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SQ956</t>
-        </is>
+      <c r="B99" t="n">
+        <v>98</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>0.3729166666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3875</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3342,24 +3146,22 @@
       <c r="A100" t="n">
         <v>99</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TR606</t>
-        </is>
+      <c r="B100" t="n">
+        <v>99</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>0.375</v>
+        <v>0.3618055555555555</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>F30</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3372,24 +3174,22 @@
       <c r="A101" t="n">
         <v>100</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>UK116</t>
-        </is>
+      <c r="B101" t="n">
+        <v>100</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>0.375</v>
+        <v>0.3354166666666666</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3597222222222222</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3402,24 +3202,22 @@
       <c r="A102" t="n">
         <v>101</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>EK433</t>
-        </is>
+      <c r="B102" t="n">
+        <v>101</v>
       </c>
       <c r="C102" s="1" t="n">
+        <v>0.3513888888888889</v>
+      </c>
+      <c r="D102" s="1" t="n">
         <v>0.3756944444444444</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <v>0.3993055555555556</v>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3432,16 +3230,14 @@
       <c r="A103" t="n">
         <v>102</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SQ288</t>
-        </is>
+      <c r="B103" t="n">
+        <v>102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>0.3763888888888889</v>
+        <v>0.3402777777777778</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.3631944444444444</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3462,20 +3258,18 @@
       <c r="A104" t="n">
         <v>103</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>JT153</t>
-        </is>
+      <c r="B104" t="n">
+        <v>103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.3840277777777778</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -3492,20 +3286,18 @@
       <c r="A105" t="n">
         <v>104</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SQ245</t>
-        </is>
+      <c r="B105" t="n">
+        <v>104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>0.3826388888888889</v>
+        <v>0.3520833333333334</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -3522,20 +3314,18 @@
       <c r="A106" t="n">
         <v>105</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>SQ972</t>
-        </is>
+      <c r="B106" t="n">
+        <v>105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>0.3854166666666667</v>
+        <v>0.3638888888888889</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.3875</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>D41</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -3552,24 +3342,22 @@
       <c r="A107" t="n">
         <v>106</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>UL307</t>
-        </is>
+      <c r="B107" t="n">
+        <v>106</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>0.3826388888888889</v>
+        <v>0.35</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.3736111111111111</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3582,24 +3370,22 @@
       <c r="A108" t="n">
         <v>107</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>SQ178</t>
-        </is>
+      <c r="B108" t="n">
+        <v>107</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>0.3861111111111111</v>
+        <v>0.4104166666666667</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.43125</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3612,24 +3398,22 @@
       <c r="A109" t="n">
         <v>108</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>SQ992</t>
-        </is>
+      <c r="B109" t="n">
+        <v>108</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3868055555555556</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.4118055555555555</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3642,24 +3426,22 @@
       <c r="A110" t="n">
         <v>109</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TR276</t>
-        </is>
+      <c r="B110" t="n">
+        <v>109</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>0.3868055555555556</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3672,24 +3454,22 @@
       <c r="A111" t="n">
         <v>110</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>MH604</t>
-        </is>
+      <c r="B111" t="n">
+        <v>110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>0.3923611111111111</v>
+        <v>0.4159722222222222</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.4395833333333333</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3702,24 +3482,22 @@
       <c r="A112" t="n">
         <v>111</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>SQ856</t>
-        </is>
+      <c r="B112" t="n">
+        <v>111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>0.3923611111111111</v>
+        <v>0.4118055555555555</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.4326388888888889</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3732,24 +3510,22 @@
       <c r="A113" t="n">
         <v>112</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>GA825</t>
-        </is>
+      <c r="B113" t="n">
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3798611111111111</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4020833333333333</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3762,20 +3538,18 @@
       <c r="A114" t="n">
         <v>113</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>MI348</t>
-        </is>
+      <c r="B114" t="n">
+        <v>113</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3875</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -3792,20 +3566,18 @@
       <c r="A115" t="n">
         <v>114</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>MI194</t>
-        </is>
+      <c r="B115" t="n">
+        <v>114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.3826388888888889</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>0.4201388888888889</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D42</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -3822,24 +3594,22 @@
       <c r="A116" t="n">
         <v>115</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>MI482</t>
-        </is>
+      <c r="B116" t="n">
+        <v>115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>0.3965277777777778</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>0.4201388888888889</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3852,24 +3622,22 @@
       <c r="A117" t="n">
         <v>116</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>EK432</t>
-        </is>
+      <c r="B117" t="n">
+        <v>116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4340277777777778</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3882,16 +3650,14 @@
       <c r="A118" t="n">
         <v>117</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>OD802</t>
-        </is>
+      <c r="B118" t="n">
+        <v>117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.3986111111111111</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3899,7 +3665,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3912,24 +3678,22 @@
       <c r="A119" t="n">
         <v>118</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>UA2SI</t>
-        </is>
+      <c r="B119" t="n">
+        <v>118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>0.4</v>
+        <v>0.4020833333333333</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4256944444444444</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3942,24 +3706,22 @@
       <c r="A120" t="n">
         <v>119</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>3K281</t>
-        </is>
+      <c r="B120" t="n">
+        <v>119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>0.4034722222222222</v>
+        <v>0.4493055555555556</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.4715277777777778</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3972,24 +3734,22 @@
       <c r="A121" t="n">
         <v>120</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>MI326</t>
-        </is>
+      <c r="B121" t="n">
+        <v>120</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>0.4041666666666667</v>
+        <v>0.4506944444444445</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.4729166666666667</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -4002,24 +3762,22 @@
       <c r="A122" t="n">
         <v>121</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TR454</t>
-        </is>
+      <c r="B122" t="n">
+        <v>121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -4032,24 +3790,22 @@
       <c r="A123" t="n">
         <v>122</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TR470</t>
-        </is>
+      <c r="B123" t="n">
+        <v>122</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>0.4034722222222222</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>C26</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4062,24 +3818,22 @@
       <c r="A124" t="n">
         <v>123</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CI752</t>
-        </is>
+      <c r="B124" t="n">
+        <v>123</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>0.4104166666666667</v>
+        <v>0.4284722222222222</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>0.4340277777777778</v>
+        <v>0.4506944444444445</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -4092,24 +3846,22 @@
       <c r="A125" t="n">
         <v>124</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>SQ211</t>
-        </is>
+      <c r="B125" t="n">
+        <v>124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0.4145833333333334</v>
+        <v>0.4430555555555555</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>C18</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4122,24 +3874,22 @@
       <c r="A126" t="n">
         <v>125</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>TR284</t>
-        </is>
+      <c r="B126" t="n">
+        <v>125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>0.4138888888888889</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.5097222222222222</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4152,16 +3902,14 @@
       <c r="A127" t="n">
         <v>126</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>UK106</t>
-        </is>
+      <c r="B127" t="n">
+        <v>126</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>0.4145833333333334</v>
+        <v>0.4868055555555555</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.5090277777777777</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4182,24 +3930,22 @@
       <c r="A128" t="n">
         <v>127</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>PR502</t>
-        </is>
+      <c r="B128" t="n">
+        <v>127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>0.4173611111111111</v>
+        <v>0.4673611111111111</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>0.4409722222222222</v>
+        <v>0.4923611111111111</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4212,24 +3958,22 @@
       <c r="A129" t="n">
         <v>128</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>MI774</t>
-        </is>
+      <c r="B129" t="n">
+        <v>128</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>0.4208333333333333</v>
+        <v>0.4770833333333334</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -4242,24 +3986,22 @@
       <c r="A130" t="n">
         <v>129</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>IX685</t>
-        </is>
+      <c r="B130" t="n">
+        <v>129</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>0.425</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0.4479166666666667</v>
+        <v>0.5159722222222223</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4272,20 +4014,18 @@
       <c r="A131" t="n">
         <v>130</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>NH842</t>
-        </is>
+      <c r="B131" t="n">
+        <v>130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>0.4284722222222222</v>
+        <v>0.4708333333333333</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -4302,24 +4042,22 @@
       <c r="A132" t="n">
         <v>131</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>QR943</t>
-        </is>
+      <c r="B132" t="n">
+        <v>131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>0.4319444444444445</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>0.4548611111111111</v>
+        <v>0.5159722222222223</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4332,20 +4070,18 @@
       <c r="A133" t="n">
         <v>132</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>6E29S</t>
-        </is>
+      <c r="B133" t="n">
+        <v>132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>0.4347222222222222</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5159722222222223</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -4362,24 +4098,22 @@
       <c r="A134" t="n">
         <v>133</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>SQ217</t>
-        </is>
+      <c r="B134" t="n">
+        <v>133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.4715277777777778</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -4392,20 +4126,18 @@
       <c r="A135" t="n">
         <v>134</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>MI480</t>
-        </is>
+      <c r="B135" t="n">
+        <v>134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>0.4479166666666667</v>
+        <v>0.4604166666666666</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>0.46875</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -4422,20 +4154,18 @@
       <c r="A136" t="n">
         <v>135</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>TR410</t>
-        </is>
+      <c r="B136" t="n">
+        <v>135</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>0.4451388888888889</v>
+        <v>0.4645833333333333</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0.46875</v>
+        <v>0.4875</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -4452,24 +4182,22 @@
       <c r="A137" t="n">
         <v>136</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>3K515</t>
-        </is>
+      <c r="B137" t="n">
+        <v>136</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.4951388888888889</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5173611111111112</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4482,24 +4210,22 @@
       <c r="A138" t="n">
         <v>137</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>SQ878</t>
-        </is>
+      <c r="B138" t="n">
+        <v>137</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>0.45625</v>
+        <v>0.48125</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.5048611111111111</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4512,24 +4238,22 @@
       <c r="A139" t="n">
         <v>138</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>3K247</t>
-        </is>
+      <c r="B139" t="n">
+        <v>138</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4694444444444444</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.4902777777777778</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4542,24 +4266,22 @@
       <c r="A140" t="n">
         <v>139</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>GA843</t>
-        </is>
+      <c r="B140" t="n">
+        <v>139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.4701388888888889</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.4923611111111111</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4572,24 +4294,22 @@
       <c r="A141" t="n">
         <v>140</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>JT163</t>
-        </is>
+      <c r="B141" t="n">
+        <v>140</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>0.4763888888888889</v>
+        <v>0.475</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>0.5</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -4602,24 +4322,22 @@
       <c r="A142" t="n">
         <v>141</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>MI560</t>
-        </is>
+      <c r="B142" t="n">
+        <v>141</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>0.4763888888888889</v>
+        <v>0.4604166666666666</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4840277777777778</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4632,24 +4350,22 @@
       <c r="A143" t="n">
         <v>142</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>BI422</t>
-        </is>
+      <c r="B143" t="n">
+        <v>142</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4805555555555556</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.5048611111111111</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4662,20 +4378,18 @@
       <c r="A144" t="n">
         <v>143</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>SQ912</t>
-        </is>
+      <c r="B144" t="n">
+        <v>143</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>0.4868055555555555</v>
+        <v>0.4701388888888889</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0.5104166666666666</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -4692,24 +4406,22 @@
       <c r="A145" t="n">
         <v>144</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>SL101</t>
-        </is>
+      <c r="B145" t="n">
+        <v>144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5604166666666667</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4722,20 +4434,18 @@
       <c r="A146" t="n">
         <v>145</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>TR896</t>
-        </is>
+      <c r="B146" t="n">
+        <v>145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>0.4902777777777778</v>
+        <v>0.5319444444444444</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5569444444444445</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>F36</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -4752,20 +4462,18 @@
       <c r="A147" t="n">
         <v>146</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>TG404</t>
-        </is>
+      <c r="B147" t="n">
+        <v>146</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>0.4965277777777778</v>
+        <v>0.5090277777777777</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>0.5173611111111112</v>
+        <v>0.53125</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>C22</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -4782,24 +4490,22 @@
       <c r="A148" t="n">
         <v>147</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>TR476</t>
-        </is>
+      <c r="B148" t="n">
+        <v>147</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>0.4944444444444445</v>
+        <v>0.5118055555555555</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>0.5173611111111112</v>
+        <v>0.5326388888888889</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4812,24 +4518,22 @@
       <c r="A149" t="n">
         <v>148</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>SQ958</t>
-        </is>
+      <c r="B149" t="n">
+        <v>148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>0.5</v>
+        <v>0.5298611111111111</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>0.5208333333333334</v>
+        <v>0.5506944444444445</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4842,24 +4546,22 @@
       <c r="A150" t="n">
         <v>149</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>SQ318</t>
-        </is>
+      <c r="B150" t="n">
+        <v>149</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>0.5076388888888889</v>
+        <v>0.5027777777777778</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>0.53125</v>
+        <v>0.5291666666666667</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4872,20 +4574,18 @@
       <c r="A151" t="n">
         <v>150</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>TR604</t>
-        </is>
+      <c r="B151" t="n">
+        <v>150</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>0.5076388888888889</v>
+        <v>0.55625</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>0.53125</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -4902,24 +4602,22 @@
       <c r="A152" t="n">
         <v>151</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>MH642</t>
-        </is>
+      <c r="B152" t="n">
+        <v>151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.5798611111111112</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4932,24 +4630,22 @@
       <c r="A153" t="n">
         <v>152</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>MI328</t>
-        </is>
+      <c r="B153" t="n">
+        <v>152</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>0.5118055555555555</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.6013888888888889</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4962,24 +4658,22 @@
       <c r="A154" t="n">
         <v>153</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>MI562</t>
-        </is>
+      <c r="B154" t="n">
+        <v>153</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>0.5118055555555555</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4992,24 +4686,22 @@
       <c r="A155" t="n">
         <v>154</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>3K685</t>
-        </is>
+      <c r="B155" t="n">
+        <v>154</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>0.5173611111111112</v>
+        <v>0.5784722222222223</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>0.5381944444444444</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>C26</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -5022,24 +4714,22 @@
       <c r="A156" t="n">
         <v>155</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>KB541</t>
-        </is>
+      <c r="B156" t="n">
+        <v>155</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>0.5173611111111112</v>
+        <v>0.575</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>0.5381944444444444</v>
+        <v>0.5965277777777778</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -5052,20 +4742,18 @@
       <c r="A157" t="n">
         <v>156</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>MH628</t>
-        </is>
+      <c r="B157" t="n">
+        <v>156</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>0.5145833333333333</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>0.5381944444444444</v>
+        <v>0.5722222222222222</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -5082,20 +4770,18 @@
       <c r="A158" t="n">
         <v>157</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>3K593</t>
-        </is>
+      <c r="B158" t="n">
+        <v>157</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>0.5180555555555556</v>
+        <v>0.5513888888888889</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -5112,24 +4798,22 @@
       <c r="A159" t="n">
         <v>158</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>UB2SI</t>
-        </is>
+      <c r="B159" t="n">
+        <v>158</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>0.51875</v>
+        <v>0.5430555555555555</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5701388888888889</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -5142,24 +4826,22 @@
       <c r="A160" t="n">
         <v>159</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SQ866</t>
-        </is>
+      <c r="B160" t="n">
+        <v>159</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>0.5215277777777778</v>
+        <v>0.5680555555555555</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>0.5451388888888888</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -5172,24 +4854,22 @@
       <c r="A161" t="n">
         <v>160</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>TR306</t>
-        </is>
+      <c r="B161" t="n">
+        <v>160</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>0.5222222222222223</v>
+        <v>0.5875</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0.5451388888888888</v>
+        <v>0.6097222222222223</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>D44</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -5202,20 +4882,18 @@
       <c r="A162" t="n">
         <v>161</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>SQ974</t>
-        </is>
+      <c r="B162" t="n">
+        <v>161</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>0.5256944444444445</v>
+        <v>0.6034722222222222</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.625</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -5232,24 +4910,22 @@
       <c r="A163" t="n">
         <v>162</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>BR226</t>
-        </is>
+      <c r="B163" t="n">
+        <v>162</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>0.53125</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>0.5520833333333334</v>
+        <v>0.6319444444444444</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -5262,24 +4938,22 @@
       <c r="A164" t="n">
         <v>163</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>TR992</t>
-        </is>
+      <c r="B164" t="n">
+        <v>163</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>0.5326388888888889</v>
+        <v>0.5854166666666667</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -5292,24 +4966,22 @@
       <c r="A165" t="n">
         <v>164</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>IX681</t>
-        </is>
+      <c r="B165" t="n">
+        <v>164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>0.5361111111111111</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.6229166666666667</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -5322,24 +4994,22 @@
       <c r="A166" t="n">
         <v>165</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>MI350</t>
-        </is>
+      <c r="B166" t="n">
+        <v>165</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>0.5354166666666667</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5352,24 +5022,22 @@
       <c r="A167" t="n">
         <v>166</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>MI754</t>
-        </is>
+      <c r="B167" t="n">
+        <v>166</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>0.5361111111111111</v>
+        <v>0.6173611111111111</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>D37</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -5382,20 +5050,18 @@
       <c r="A168" t="n">
         <v>167</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>TR634</t>
-        </is>
+      <c r="B168" t="n">
+        <v>167</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>0.5361111111111111</v>
+        <v>0.6569444444444444</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.6826388888888889</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -5412,24 +5078,22 @@
       <c r="A169" t="n">
         <v>168</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>6E52S</t>
-        </is>
+      <c r="B169" t="n">
+        <v>168</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>0.5451388888888888</v>
+        <v>0.6486111111111111</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>0.5659722222222222</v>
+        <v>0.6756944444444445</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>F56</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5442,20 +5106,18 @@
       <c r="A170" t="n">
         <v>169</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>6E44S</t>
-        </is>
+      <c r="B170" t="n">
+        <v>169</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.6256944444444444</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -5472,24 +5134,22 @@
       <c r="A171" t="n">
         <v>170</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>MH606</t>
-        </is>
+      <c r="B171" t="n">
+        <v>170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>0.5465277777777777</v>
+        <v>0.6520833333333333</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5502,24 +5162,22 @@
       <c r="A172" t="n">
         <v>171</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>8M232</t>
-        </is>
+      <c r="B172" t="n">
+        <v>171</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>0.5520833333333334</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.6652777777777777</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -5532,24 +5190,22 @@
       <c r="A173" t="n">
         <v>172</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>EK404</t>
-        </is>
+      <c r="B173" t="n">
+        <v>172</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>0.55625</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.6847222222222222</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5562,24 +5218,22 @@
       <c r="A174" t="n">
         <v>173</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>MI640</t>
-        </is>
+      <c r="B174" t="n">
+        <v>173</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>0.5569444444444445</v>
+        <v>0.6319444444444444</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5592,24 +5246,22 @@
       <c r="A175" t="n">
         <v>174</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>SQ184</t>
-        </is>
+      <c r="B175" t="n">
+        <v>174</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.6465277777777778</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.6715277777777777</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -5622,24 +5274,22 @@
       <c r="A176" t="n">
         <v>175</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>SQ326</t>
-        </is>
+      <c r="B176" t="n">
+        <v>175</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>0.5569444444444445</v>
+        <v>0.6277777777777778</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.6506944444444445</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -5652,24 +5302,22 @@
       <c r="A177" t="n">
         <v>176</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>TR904</t>
-        </is>
+      <c r="B177" t="n">
+        <v>176</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>0.5569444444444445</v>
+        <v>0.6368055555555555</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -5682,20 +5330,18 @@
       <c r="A178" t="n">
         <v>177</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>3K557</t>
-        </is>
+      <c r="B178" t="n">
+        <v>177</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>0.5625</v>
+        <v>0.6472222222222223</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6729166666666667</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -5712,20 +5358,18 @@
       <c r="A179" t="n">
         <v>178</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>GA831</t>
-        </is>
+      <c r="B179" t="n">
+        <v>178</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>0.5631944444444444</v>
+        <v>0.6659722222222222</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -5742,24 +5386,22 @@
       <c r="A180" t="n">
         <v>179</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>SQ622</t>
-        </is>
+      <c r="B180" t="n">
+        <v>179</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>0.5631944444444444</v>
+        <v>0.6375</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.6631944444444444</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -5772,24 +5414,22 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SQ634</t>
-        </is>
+      <c r="B181" t="n">
+        <v>180</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>0.5638888888888889</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5802,24 +5442,22 @@
       <c r="A182" t="n">
         <v>181</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>SQ916</t>
-        </is>
+      <c r="B182" t="n">
+        <v>181</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>0.5638888888888889</v>
+        <v>0.6506944444444445</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>0.6722222222222223</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5832,24 +5470,22 @@
       <c r="A183" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>PR508</t>
-        </is>
+      <c r="B183" t="n">
+        <v>182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>0.5673611111111111</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.6625</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5862,24 +5498,22 @@
       <c r="A184" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>MI154</t>
-        </is>
+      <c r="B184" t="n">
+        <v>183</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>0.59375</v>
+        <v>0.6659722222222222</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5892,24 +5526,22 @@
       <c r="A185" t="n">
         <v>184</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>TR686</t>
-        </is>
+      <c r="B185" t="n">
+        <v>184</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>0.5770833333333333</v>
+        <v>0.6298611111111111</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>0.6006944444444444</v>
+        <v>0.6534722222222222</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>D35</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5922,24 +5554,22 @@
       <c r="A186" t="n">
         <v>185</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>MI616</t>
-        </is>
+      <c r="B186" t="n">
+        <v>185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>0.58125</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5952,24 +5582,22 @@
       <c r="A187" t="n">
         <v>186</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>3K535</t>
-        </is>
+      <c r="B187" t="n">
+        <v>186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.6347222222222222</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6576388888888889</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>D32</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5982,24 +5610,22 @@
       <c r="A188" t="n">
         <v>187</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>TR674</t>
-        </is>
+      <c r="B188" t="n">
+        <v>187</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>0.5909722222222222</v>
+        <v>0.6305555555555555</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>0.6145833333333334</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -6012,24 +5638,22 @@
       <c r="A189" t="n">
         <v>188</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>JT155</t>
-        </is>
+      <c r="B189" t="n">
+        <v>188</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>0.5951388888888889</v>
+        <v>0.6993055555555555</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>0.6180555555555556</v>
+        <v>0.7263888888888889</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -6042,24 +5666,22 @@
       <c r="A190" t="n">
         <v>189</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>TR390</t>
-        </is>
+      <c r="B190" t="n">
+        <v>189</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>0.5951388888888889</v>
+        <v>0.6895833333333333</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>0.6180555555555556</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -6072,24 +5694,22 @@
       <c r="A191" t="n">
         <v>190</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>TR424</t>
-        </is>
+      <c r="B191" t="n">
+        <v>190</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>0.5979166666666667</v>
+        <v>0.6993055555555555</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>0.6215277777777778</v>
+        <v>0.7215277777777778</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>D47</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -6102,20 +5722,18 @@
       <c r="A192" t="n">
         <v>191</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>3K203</t>
-        </is>
+      <c r="B192" t="n">
+        <v>191</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>0.6013888888888889</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>0.625</v>
+        <v>0.7243055555555555</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -6132,24 +5750,22 @@
       <c r="A193" t="n">
         <v>192</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>TR250</t>
-        </is>
+      <c r="B193" t="n">
+        <v>192</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>0.6020833333333333</v>
+        <v>0.7048611111111112</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>0.625</v>
+        <v>0.73125</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -6162,20 +5778,18 @@
       <c r="A194" t="n">
         <v>193</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>SQ112</t>
-        </is>
+      <c r="B194" t="n">
+        <v>193</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>0.6048611111111111</v>
+        <v>0.6923611111111111</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>0.6284722222222222</v>
+        <v>0.7180555555555556</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -6192,24 +5806,22 @@
       <c r="A195" t="n">
         <v>194</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>SQ494</t>
-        </is>
+      <c r="B195" t="n">
+        <v>194</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>0.6055555555555555</v>
+        <v>0.675</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>0.6284722222222222</v>
+        <v>0.7</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -6222,20 +5834,18 @@
       <c r="A196" t="n">
         <v>195</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>3K675</t>
-        </is>
+      <c r="B196" t="n">
+        <v>195</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>0.6090277777777777</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.7159722222222222</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -6252,24 +5862,22 @@
       <c r="A197" t="n">
         <v>196</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>MI654</t>
-        </is>
+      <c r="B197" t="n">
+        <v>196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.7229166666666667</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.7493055555555556</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F35</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -6282,24 +5890,22 @@
       <c r="A198" t="n">
         <v>197</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>TR16S</t>
-        </is>
+      <c r="B198" t="n">
+        <v>197</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7215277777777778</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.7472222222222222</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -6312,24 +5918,22 @@
       <c r="A199" t="n">
         <v>198</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>TR508</t>
-        </is>
+      <c r="B199" t="n">
+        <v>198</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.7375</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.7618055555555555</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -6342,24 +5946,22 @@
       <c r="A200" t="n">
         <v>199</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>MF852</t>
-        </is>
+      <c r="B200" t="n">
+        <v>199</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>0.6118055555555556</v>
+        <v>0.7493055555555556</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.775</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -6372,20 +5974,18 @@
       <c r="A201" t="n">
         <v>200</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>MI144</t>
-        </is>
+      <c r="B201" t="n">
+        <v>200</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>0.6125</v>
+        <v>0.7194444444444444</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.7402777777777778</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>B9</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -6399,6 +5999,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/instance/200/schedule_1.xlsx
+++ b/data/instance/200/schedule_1.xlsx
@@ -406,10 +406,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02569444444444444</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.02638888888888889</v>
+        <v>0.03680555555555556</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.05347222222222222</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -462,10 +462,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.004166666666666667</v>
+        <v>0.03680555555555556</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.03055555555555555</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.03819444444444445</v>
+        <v>0.004861111111111111</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.05902777777777778</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.03125</v>
+        <v>0.01875</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.04375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.07430555555555556</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -574,18 +574,18 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.06736111111111111</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.06805555555555555</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>E25</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.06458333333333334</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.08194444444444444</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.08125</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.1076388888888889</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.04513888888888889</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.07152777777777777</v>
+        <v>0.07430555555555556</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.06527777777777778</v>
+        <v>0.06458333333333334</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.08958333333333333</v>
+        <v>0.08055555555555556</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.04305555555555556</v>
+        <v>0.08194444444444444</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.1048611111111111</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.075</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.09861111111111111</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C22</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,18 +798,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.06388888888888888</v>
+        <v>0.07013888888888889</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.08958333333333333</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.05763888888888889</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.08125</v>
+        <v>0.07013888888888889</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.08055555555555556</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.07847222222222222</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.08680555555555555</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.1020833333333333</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.07569444444444444</v>
+        <v>0.04722222222222222</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.1</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -966,18 +966,18 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.07361111111111111</v>
+        <v>0.06527777777777778</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.09513888888888888</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.07152777777777777</v>
+        <v>0.06458333333333334</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.09583333333333334</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1022,14 +1022,14 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.06319444444444444</v>
+        <v>0.07569444444444444</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.09861111111111111</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1050,18 +1050,18 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.1215277777777778</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.1465277777777778</v>
+        <v>0.1201388888888889</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1078,18 +1078,18 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.1194444444444445</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1106,18 +1106,18 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.1201388888888889</v>
+        <v>0.1270833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C26</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0.08819444444444445</v>
+        <v>0.1097222222222222</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1326388888888889</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1162,18 +1162,18 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.09930555555555555</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.1291666666666667</v>
+        <v>0.1236111111111111</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1190,18 +1190,18 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0.08541666666666667</v>
+        <v>0.09097222222222222</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.1118055555555556</v>
+        <v>0.1159722222222222</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F51</t>
+          <t>F50</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1218,14 +1218,14 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0.1215277777777778</v>
+        <v>0.09861111111111111</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.1430555555555555</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1246,14 +1246,14 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.08472222222222223</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.1152777777777778</v>
+        <v>0.1090277777777778</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1274,14 +1274,14 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0.1131944444444444</v>
+        <v>0.1</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.1347222222222222</v>
+        <v>0.1236111111111111</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1302,18 +1302,18 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.09305555555555556</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.1138888888888889</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1330,18 +1330,18 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0.1180555555555556</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.1430555555555555</v>
+        <v>0.1125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>E26</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1358,18 +1358,18 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0.1090277777777778</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.1340277777777778</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1386,14 +1386,14 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.1229166666666667</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1430555555555555</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>E25</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1414,18 +1414,18 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.1125</v>
+        <v>0.1430555555555555</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1442,18 +1442,18 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.08472222222222223</v>
+        <v>0.08819444444444445</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>E24</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1470,18 +1470,18 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.08541666666666667</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.1375</v>
+        <v>0.10625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1498,18 +1498,18 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.08819444444444445</v>
+        <v>0.1159722222222222</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.1125</v>
+        <v>0.1368055555555556</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.1659722222222222</v>
+        <v>0.1847222222222222</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.1534722222222222</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.1847222222222222</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0.1611111111111111</v>
+        <v>0.1513888888888889</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.1881944444444444</v>
+        <v>0.1784722222222222</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1610,18 +1610,18 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0.1590277777777778</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.1861111111111111</v>
+        <v>0.1625</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0.1652777777777778</v>
+        <v>0.1347222222222222</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.1868055555555556</v>
+        <v>0.1604166666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0.1402777777777778</v>
+        <v>0.1604166666666667</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.1625</v>
+        <v>0.1868055555555556</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0.1625</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.1847222222222222</v>
+        <v>0.1645833333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1722,14 +1722,14 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0.1298611111111111</v>
+        <v>0.1381944444444445</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>D49</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1750,14 +1750,14 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.1277777777777778</v>
+        <v>0.1493055555555556</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.1548611111111111</v>
+        <v>0.1743055555555555</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>D42</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1778,18 +1778,18 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.1604166666666667</v>
+        <v>0.1284722222222222</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>0.1826388888888889</v>
+        <v>0.1493055555555556</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1806,18 +1806,18 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0.15625</v>
+        <v>0.1263888888888889</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.1784722222222222</v>
+        <v>0.1506944444444444</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1834,18 +1834,18 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.1340277777777778</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.1701388888888889</v>
+        <v>0.1548611111111111</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>F37</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.1486111111111111</v>
+        <v>0.15</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.1701388888888889</v>
+        <v>0.1756944444444444</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.1409722222222222</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.1756944444444444</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1918,14 +1918,14 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0.1361111111111111</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.1618055555555556</v>
+        <v>0.1694444444444445</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -1946,14 +1946,14 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>0.1798611111111111</v>
+        <v>0.1881944444444444</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>D49</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -1974,14 +1974,14 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0.1451388888888889</v>
+        <v>0.1534722222222222</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>0.1701388888888889</v>
+        <v>0.1756944444444444</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2002,10 +2002,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0.20625</v>
+        <v>0.1743055555555555</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.1986111111111111</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2030,18 +2030,18 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0.2034722222222222</v>
+        <v>0.1798611111111111</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0.2305555555555556</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>C22</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0.1840277777777778</v>
+        <v>0.2006944444444445</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.2277777777777778</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>0.1854166666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0.2118055555555556</v>
+        <v>0.2125</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2114,18 +2114,18 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.175</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0.2215277777777778</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0.1895833333333333</v>
+        <v>0.1951388888888889</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>0.2152777777777778</v>
+        <v>0.2208333333333333</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.1756944444444444</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2198,14 +2198,14 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.2069444444444444</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>0.2229166666666667</v>
+        <v>0.23125</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>B7</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2226,18 +2226,18 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0.2069444444444444</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>0.2284722222222222</v>
+        <v>0.1986111111111111</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2254,14 +2254,14 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>0.1819444444444444</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0.2055555555555555</v>
+        <v>0.2298611111111111</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>F60</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2282,18 +2282,18 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>0.1708333333333333</v>
+        <v>0.175</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>0.1923611111111111</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>C12</t>
+          <t>C25</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0.24375</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0.2680555555555555</v>
+        <v>0.2715277777777778</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0.2354166666666667</v>
+        <v>0.2381944444444444</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0.2611111111111111</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2366,18 +2366,18 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0.2451388888888889</v>
+        <v>0.2270833333333333</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>0.2673611111111111</v>
+        <v>0.25</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2394,18 +2394,18 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0.2486111111111111</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0.2715277777777778</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E26</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2422,18 +2422,18 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.2270833333333333</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>0.2347222222222222</v>
+        <v>0.2520833333333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2450,18 +2450,18 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.2284722222222222</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>0.2659722222222222</v>
+        <v>0.2493055555555556</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2478,18 +2478,18 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0.2256944444444444</v>
+        <v>0.2354166666666667</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>0.2520833333333333</v>
+        <v>0.25625</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2506,18 +2506,18 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>0.2215277777777778</v>
+        <v>0.2256944444444444</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>0.2458333333333333</v>
+        <v>0.2520833333333333</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2534,18 +2534,18 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>0.2284722222222222</v>
+        <v>0.2125</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>0.2534722222222222</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>C25</t>
+          <t>C26</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2562,10 +2562,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0.2263888888888889</v>
+        <v>0.2298611111111111</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>0.2520833333333333</v>
+        <v>0.2527777777777778</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>0.23125</v>
+        <v>0.2284722222222222</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>0.2548611111111111</v>
+        <v>0.2506944444444444</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2618,18 +2618,18 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.2506944444444444</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>0.3</v>
+        <v>0.2756944444444445</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B5</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2646,18 +2646,18 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0.2520833333333333</v>
+        <v>0.2895833333333334</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.3138888888888889</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2674,18 +2674,18 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>0.2659722222222222</v>
+        <v>0.2875</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.3138888888888889</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>D37</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2702,14 +2702,14 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.2590277777777778</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>0.3104166666666667</v>
+        <v>0.2805555555555556</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2730,10 +2730,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0.2729166666666666</v>
+        <v>0.2548611111111111</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>0.2944444444444445</v>
+        <v>0.2756944444444445</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2758,18 +2758,18 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>0.28125</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>0.3027777777777778</v>
+        <v>0.2826388888888889</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2786,10 +2786,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0.2909722222222222</v>
+        <v>0.2680555555555555</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.2895833333333334</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2814,18 +2814,18 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>0.26875</v>
+        <v>0.2868055555555555</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>0.2923611111111111</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2842,18 +2842,18 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>0.2645833333333333</v>
+        <v>0.2819444444444444</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>0.2875</v>
+        <v>0.3048611111111111</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>D38</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2870,18 +2870,18 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>0.2659722222222222</v>
+        <v>0.2868055555555555</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>0.2875</v>
+        <v>0.3104166666666667</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>D34</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2898,18 +2898,18 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.26875</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>0.3131944444444444</v>
+        <v>0.2944444444444445</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2926,18 +2926,18 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>0.3041666666666666</v>
+        <v>0.3097222222222222</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>0.3305555555555555</v>
+        <v>0.3347222222222222</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>C21</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2954,10 +2954,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>0.3215277777777778</v>
+        <v>0.3180555555555555</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>0.3423611111111111</v>
+        <v>0.34375</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2982,10 +2982,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0.3305555555555555</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>0.3569444444444445</v>
+        <v>0.3513888888888889</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3010,18 +3010,18 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>0.3305555555555555</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>0.3520833333333334</v>
+        <v>0.3173611111111111</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3038,18 +3038,18 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>0.3298611111111111</v>
+        <v>0.3104166666666667</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>0.3506944444444444</v>
+        <v>0.33125</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3066,10 +3066,10 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.3145833333333333</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>0.3444444444444444</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3094,18 +3094,18 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>0.3576388888888889</v>
+        <v>0.3506944444444444</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.3729166666666667</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3122,18 +3122,18 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3381944444444445</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>0.3875</v>
+        <v>0.3625</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>F33</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3150,14 +3150,14 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>0.3618055555555555</v>
+        <v>0.36875</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>0.3854166666666667</v>
+        <v>0.3895833333333333</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>D41</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3178,18 +3178,18 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>0.3354166666666666</v>
+        <v>0.3423611111111111</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>0.3597222222222222</v>
+        <v>0.3673611111111111</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3206,18 +3206,18 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>0.3513888888888889</v>
+        <v>0.3423611111111111</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>0.3756944444444444</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3234,18 +3234,18 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>0.3402777777777778</v>
+        <v>0.35625</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>0.3631944444444444</v>
+        <v>0.3798611111111111</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3262,14 +3262,14 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>0.3576388888888889</v>
+        <v>0.3361111111111111</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>0.3840277777777778</v>
+        <v>0.3618055555555555</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -3290,18 +3290,18 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>0.3520833333333334</v>
+        <v>0.3569444444444445</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>0.3777777777777778</v>
+        <v>0.3826388888888889</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3318,18 +3318,18 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>0.3638888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>0.3875</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>D41</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3346,18 +3346,18 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>0.35</v>
+        <v>0.3701388888888889</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>0.3736111111111111</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>C23</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3374,18 +3374,18 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>0.4104166666666667</v>
+        <v>0.3902777777777778</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>0.43125</v>
+        <v>0.4173611111111111</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3402,14 +3402,14 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0.3868055555555556</v>
+        <v>0.3847222222222222</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>0.4118055555555555</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -3430,18 +3430,18 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>0.4152777777777778</v>
+        <v>0.4104166666666667</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.43125</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>A15</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3458,14 +3458,14 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>0.4159722222222222</v>
+        <v>0.4118055555555555</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>0.4395833333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A15</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -3486,14 +3486,14 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>0.4118055555555555</v>
+        <v>0.4</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>0.4326388888888889</v>
+        <v>0.4208333333333333</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -3514,14 +3514,14 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>0.3798611111111111</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>0.4020833333333333</v>
+        <v>0.4354166666666667</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -3542,18 +3542,18 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>0.3875</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.4138888888888889</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>D41</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3570,18 +3570,18 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>0.3826388888888889</v>
+        <v>0.375</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.4013888888888889</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>D42</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3598,18 +3598,18 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>0.3972222222222222</v>
+        <v>0.3993055555555556</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>0.4236111111111111</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>E21</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3626,18 +3626,18 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.3847222222222222</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>0.4340277777777778</v>
+        <v>0.40625</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>0.3986111111111111</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -3682,14 +3682,14 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>0.4020833333333333</v>
+        <v>0.3763888888888889</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>0.4256944444444444</v>
+        <v>0.4034722222222222</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -3710,18 +3710,18 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>0.4493055555555556</v>
+        <v>0.4506944444444445</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>0.4715277777777778</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>A21</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3738,18 +3738,18 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>0.4506944444444445</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>0.4729166666666667</v>
+        <v>0.4770833333333334</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3766,18 +3766,18 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4506944444444445</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>D36</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3794,18 +3794,18 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4486111111111111</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.4701388888888889</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3822,18 +3822,18 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>0.4284722222222222</v>
+        <v>0.4319444444444445</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>0.4506944444444445</v>
+        <v>0.4541666666666667</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3850,18 +3850,18 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0.4430555555555555</v>
+        <v>0.4395833333333333</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>0.4666666666666667</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3878,14 +3878,14 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>0.4826388888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>0.5097222222222222</v>
+        <v>0.4923611111111111</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>A18</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -3906,18 +3906,18 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>0.4868055555555555</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>0.5090277777777777</v>
+        <v>0.5173611111111112</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A18</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>0.4673611111111111</v>
+        <v>0.4944444444444445</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>0.4923611111111111</v>
+        <v>0.5201388888888889</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>A16</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -3962,14 +3962,14 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>0.4770833333333334</v>
+        <v>0.4854166666666667</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>0.5</v>
+        <v>0.5097222222222222</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -3990,18 +3990,18 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.4993055555555556</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>0.5159722222222223</v>
+        <v>0.5256944444444445</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -4018,18 +4018,18 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>0.4708333333333333</v>
+        <v>0.4618055555555556</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>D30</t>
+          <t>F52</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4046,18 +4046,18 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.49375</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>0.5159722222222223</v>
+        <v>0.5194444444444445</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4074,14 +4074,14 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>0.4930555555555556</v>
+        <v>0.4756944444444444</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>0.5159722222222223</v>
+        <v>0.4979166666666667</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>C17</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -4102,14 +4102,14 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>0.4715277777777778</v>
+        <v>0.4673611111111111</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -4130,18 +4130,18 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>0.4604166666666666</v>
+        <v>0.4868055555555555</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4158,18 +4158,18 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>0.4645833333333333</v>
+        <v>0.4729166666666667</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>0.4875</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4186,18 +4186,18 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>0.4951388888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>0.5173611111111112</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4214,14 +4214,14 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>0.48125</v>
+        <v>0.4701388888888889</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>0.5048611111111111</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>C11</t>
+          <t>F56</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -4242,18 +4242,18 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>0.4694444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>0.4902777777777778</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4270,18 +4270,18 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>0.4701388888888889</v>
+        <v>0.4993055555555556</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>0.4923611111111111</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4298,18 +4298,18 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>0.475</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>0.5020833333333333</v>
+        <v>0.5159722222222223</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -4326,18 +4326,18 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>0.4604166666666666</v>
+        <v>0.4611111111111111</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>0.4840277777777778</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4354,18 +4354,18 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>0.4805555555555556</v>
+        <v>0.4875</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>0.5048611111111111</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4382,18 +4382,18 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>0.4701388888888889</v>
+        <v>0.4840277777777778</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>0.4909722222222222</v>
+        <v>0.50625</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>B8</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4410,18 +4410,18 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>0.5395833333333333</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>0.5604166666666667</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4438,14 +4438,14 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>0.5319444444444444</v>
+        <v>0.5152777777777777</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>0.5569444444444445</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>F36</t>
+          <t>A17</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -4466,18 +4466,18 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>0.5090277777777777</v>
+        <v>0.5006944444444444</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>0.53125</v>
+        <v>0.5270833333333333</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>A7</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4494,18 +4494,18 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>0.5118055555555555</v>
+        <v>0.5340277777777778</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>0.5326388888888889</v>
+        <v>0.5548611111111111</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A6</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4522,18 +4522,18 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>0.5298611111111111</v>
+        <v>0.53125</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>0.5506944444444445</v>
+        <v>0.5534722222222223</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4550,18 +4550,18 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>0.5027777777777778</v>
+        <v>0.51875</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>0.5291666666666667</v>
+        <v>0.5423611111111111</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>D43</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4578,18 +4578,18 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>0.55625</v>
+        <v>0.5548611111111111</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.5798611111111112</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>A6</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4606,18 +4606,18 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>0.5430555555555555</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>0.6027777777777777</v>
+        <v>0.5645833333333333</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4634,18 +4634,18 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5527777777777778</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>0.6013888888888889</v>
+        <v>0.5743055555555555</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4662,18 +4662,18 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.5701388888888889</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4690,18 +4690,18 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>0.5784722222222223</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5673611111111111</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>D48</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4718,14 +4718,14 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>0.575</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>0.5965277777777778</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -4746,14 +4746,14 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>0.5493055555555556</v>
+        <v>0.5652777777777778</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>0.5722222222222222</v>
+        <v>0.5923611111111111</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -4774,14 +4774,14 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>0.5513888888888889</v>
+        <v>0.5576388888888889</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.5784722222222223</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -4802,14 +4802,14 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>0.5430555555555555</v>
+        <v>0.54375</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>0.5701388888888889</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C21</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -4830,18 +4830,18 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>0.5680555555555555</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>0.5916666666666667</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4861,11 +4861,11 @@
         <v>0.5875</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>0.6097222222222223</v>
+        <v>0.6125</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>D47</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -4886,18 +4886,18 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>0.6034722222222222</v>
+        <v>0.6131944444444445</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>0.625</v>
+        <v>0.6340277777777777</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>C20</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4914,14 +4914,14 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.5965277777777778</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.6236111111111111</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>C20</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -4942,18 +4942,18 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>0.5854166666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6319444444444444</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4970,14 +4970,14 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.6201388888888889</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>0.6229166666666667</v>
+        <v>0.64375</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -4998,18 +4998,18 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>0.5861111111111111</v>
+        <v>0.6097222222222223</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>0.6118055555555556</v>
+        <v>0.6347222222222222</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>F60</t>
+          <t>D38</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5026,14 +5026,14 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>0.6173611111111111</v>
+        <v>0.60625</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.63125</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -5054,14 +5054,14 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>0.6569444444444444</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>0.6826388888888889</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>C14</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -5082,18 +5082,18 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>0.6486111111111111</v>
+        <v>0.6548611111111111</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>0.6756944444444445</v>
+        <v>0.68125</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>C14</t>
+          <t>D49</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -5110,14 +5110,14 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>0.6256944444444444</v>
+        <v>0.6298611111111111</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.6506944444444445</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D31</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -5138,18 +5138,18 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>0.6520833333333333</v>
+        <v>0.6270833333333333</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>0.6791666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>C19</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -5166,18 +5166,18 @@
         <v>171</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>0.6430555555555556</v>
+        <v>0.6270833333333333</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>0.6652777777777777</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -5194,18 +5194,18 @@
         <v>172</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.6590277777777778</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>0.6847222222222222</v>
+        <v>0.6798611111111111</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>C11</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5222,18 +5222,18 @@
         <v>173</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.6576388888888889</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.68125</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>A9</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5250,18 +5250,18 @@
         <v>174</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>0.6465277777777778</v>
+        <v>0.6284722222222222</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>0.6715277777777777</v>
+        <v>0.6520833333333333</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -5278,18 +5278,18 @@
         <v>175</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>0.6277777777777778</v>
+        <v>0.6513888888888889</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>0.6506944444444445</v>
+        <v>0.6729166666666667</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -5306,14 +5306,14 @@
         <v>176</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>0.6368055555555555</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>0.6604166666666667</v>
+        <v>0.6826388888888889</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -5334,14 +5334,14 @@
         <v>177</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>0.6472222222222223</v>
+        <v>0.6486111111111111</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>0.6729166666666667</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -5365,11 +5365,11 @@
         <v>0.6659722222222222</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.6902777777777778</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>D48</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -5390,18 +5390,18 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>0.6375</v>
+        <v>0.6263888888888889</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>0.6631944444444444</v>
+        <v>0.6513888888888889</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -5418,18 +5418,18 @@
         <v>180</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.6402777777777777</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>0.6604166666666667</v>
+        <v>0.6625</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5446,18 +5446,18 @@
         <v>181</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>0.6506944444444445</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>0.6722222222222223</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5474,18 +5474,18 @@
         <v>182</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>0.6625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F31</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5502,18 +5502,18 @@
         <v>183</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6534722222222222</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>0.6659722222222222</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>D49</t>
+          <t>F36</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
         <v>184</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>0.6298611111111111</v>
+        <v>0.6263888888888889</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>0.6534722222222222</v>
+        <v>0.6493055555555556</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>C22</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -5558,14 +5558,14 @@
         <v>185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>0.6611111111111111</v>
+        <v>0.6291666666666667</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>0.6875</v>
+        <v>0.6534722222222222</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>D35</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -5586,18 +5586,18 @@
         <v>186</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>0.6347222222222222</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>0.6576388888888889</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>D32</t>
+          <t>F51</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5614,18 +5614,18 @@
         <v>187</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>0.6305555555555555</v>
+        <v>0.64375</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.66875</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5642,18 +5642,18 @@
         <v>188</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>0.6993055555555555</v>
+        <v>0.6784722222222223</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>0.7263888888888889</v>
+        <v>0.7048611111111112</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5670,18 +5670,18 @@
         <v>189</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>0.6895833333333333</v>
+        <v>0.6763888888888889</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>0.7104166666666667</v>
+        <v>0.6993055555555555</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5698,18 +5698,18 @@
         <v>190</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>0.6993055555555555</v>
+        <v>0.675</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>0.7215277777777778</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5726,14 +5726,14 @@
         <v>191</v>
       </c>
       <c r="C192" s="1" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c r="D192" s="1" t="n">
         <v>0.7013888888888888</v>
       </c>
-      <c r="D192" s="1" t="n">
-        <v>0.7243055555555555</v>
-      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>A21</t>
+          <t>C19</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -5754,18 +5754,18 @@
         <v>192</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>0.7048611111111112</v>
+        <v>0.6826388888888889</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>0.73125</v>
+        <v>0.7034722222222223</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>A7</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5782,18 +5782,18 @@
         <v>193</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>0.6923611111111111</v>
+        <v>0.6819444444444445</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>0.7180555555555556</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5810,18 +5810,18 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>0.675</v>
+        <v>0.6840277777777778</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>0.7</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>C25</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5838,18 +5838,18 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6826388888888889</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>0.7159722222222222</v>
+        <v>0.7097222222222223</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>B7</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5866,14 +5866,14 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>0.7229166666666667</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>0.7493055555555556</v>
+        <v>0.7347222222222223</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>C24</t>
+          <t>F31</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -5894,18 +5894,18 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>0.7215277777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>0.7472222222222222</v>
+        <v>0.7368055555555556</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>B5</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -5922,18 +5922,18 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>0.7375</v>
+        <v>0.7263888888888889</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>0.7618055555555555</v>
+        <v>0.7527777777777778</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F33</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5950,18 +5950,18 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>0.7493055555555556</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>0.775</v>
+        <v>0.74375</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>F32</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -5978,18 +5978,18 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>0.7194444444444444</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>0.7402777777777778</v>
+        <v>0.7472222222222222</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>B9</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
